--- a/2COURSE/2SEM/Physics/lab_3_10/3.10.xlsx
+++ b/2COURSE/2SEM/Physics/lab_3_10/3.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\Physics\lab_3_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D235B4E-89B9-434C-95A7-9FE6BD848228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EEDFF-940C-4263-ABAE-F592C0D94CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-20205" yWindow="3195" windowWidth="19890" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,11 +285,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -306,7 +310,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1867,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,13 +1904,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1918,15 +1926,15 @@
         <f t="shared" ref="C2:C6" si="0">B2/10</f>
         <v>2.2000000000000003E-9</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I15" si="1">1/H10*LN(F10/G10)</f>
         <v>0.27031007207210955</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f t="shared" ref="J2:J7" si="2">SQRT((0.1/(LN(F10)*F10-LN(G10)*F10))^2+(0.1/(-LN(F10)*G10-LN(G10)*G10))^2)*100</f>
         <v>2.3194181159530745</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f t="shared" ref="K2:K15" si="3">I2*J2/100</f>
         <v>6.2696207808863209E-3</v>
       </c>
@@ -1946,18 +1954,18 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
         <v>0.31636018489904866</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" si="2"/>
         <v>2.2955507483528721</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="3"/>
         <v>7.2622085919406406E-3</v>
       </c>
@@ -1974,15 +1982,15 @@
         <f t="shared" si="0"/>
         <v>4.7000000000000007E-9</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>0.36620409622270322</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
         <v>2.5199656787987847</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="3"/>
         <v>9.2282175391673986E-3</v>
       </c>
@@ -1995,7 +2003,7 @@
         <f>470*10^-9</f>
         <v>4.7000000000000005E-7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>4.7000000000000004E-8</v>
       </c>
@@ -2006,15 +2014,15 @@
         <f>2*SQRT(B6/B2)</f>
         <v>1348.3997249264842</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>0.3776994882464263</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>2.64197035668519</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>9.9787085168222458E-3</v>
       </c>
@@ -2027,19 +2035,19 @@
         <f>10*10^-3</f>
         <v>0.01</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>0.42697794848735471</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="2"/>
         <v>3.4995304505810085</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>1.494222332458107E-2</v>
       </c>
@@ -2052,1129 +2060,1138 @@
         <f>240</f>
         <v>240</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>0.45562542508759629</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>4.3121490153523148</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="3"/>
         <v>1.9647247281609583E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>0.47570545188004859</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" ref="J8:J9" si="4">SQRT((0.05/(LN(F16)*F16-LN(G16)*F16))^2+(0.05/(-LN(F16)*G16-LN(G16)*G16))^2)*100</f>
         <v>2.4287380074949114</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="3"/>
         <v>1.1553639113536155E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>0.49797500843741865</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="4"/>
         <v>2.7834350830430377</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f t="shared" si="3"/>
         <v>1.3860811089633638E-2</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" ref="B10:B23" si="5">2*3.14/SQRT((1/($B$6*$B$2))-(A10^2/(4*($B$6^2))))*1000</f>
         <v>9.3147452997921543E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:C23" si="6">SQRT((((2*$B$6-A10^2*$B$2)*$C$6)/(4*$B$6^2-A10^2*$B$6*$B$2))^2+(2*$B$6*$C$2/(4*$B$6*$B$2-A10^2*$B$2^2))^2)*100</f>
         <v>7.0710678118654764</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" ref="D10:D23" si="7">C10*B10/100</f>
         <v>6.5865195665085544E-3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>6.3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>2.8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0.55799214452389045</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" ref="J10:J12" si="8">SQRT((0.02/(LN(F18)*F18-LN(G18)*F18))^2+(0.02/(-LN(F18)*G18-LN(G18)*G18))^2)*100</f>
         <v>1.538946304693132</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="3"/>
         <v>8.5871994886283724E-3</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" ref="M10:M23" si="9">A10+$N$27</f>
         <v>62.518518518518519</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f t="shared" ref="N10:N20" si="10">(3.14159265358979*M10)^2/I2^2*$B$2</f>
         <v>1.1614896009346067E-2</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f t="shared" ref="O10:O20" si="11">ABS($N$29-N10)</f>
         <v>9.4884418028101485E-4</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f>2*3.14/SQRT((1/(N29*$B$2))-(M10^2/(4*(N29^2))))*1000</f>
         <v>0.10449663950198983</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <f>SQRT((((2*$N$29-M10^2*$B$2)*$N$30)/(4*$N$29^2-M10^2*$N$29*$B$2))^2+(2*$N$29*$C$2/(4*$N$29*$B$2-M10^2*$B$2^2))^2)*100</f>
         <v>7.3230012307377761</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <f>P10*Q10/100</f>
         <v>7.6522901968103319E-3</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <f t="shared" ref="S10:S11" si="12">1/M10*SQRT(N10/$B$2)</f>
         <v>11.622181258387291</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <f t="shared" ref="T10:T11" si="13">SQRT((O10/2/N10)^2+(($C$2/2/$B$2))^2)*100</f>
         <v>6.4563116806680503</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <f t="shared" ref="U10:U11" si="14">T10*S10/100</f>
         <v>0.7503642461336717</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="5"/>
         <v>9.3150014658547969E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="6"/>
         <v>7.071067822561643</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="7"/>
         <v>6.5867007132320386E-3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>6.2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>2.4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>0.68612937749400116</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="8"/>
         <v>3.2218555879636317</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="3"/>
         <v>2.2106097689450557E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="9"/>
         <v>72.518518518518519</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f t="shared" si="10"/>
         <v>1.1409237781982792E-2</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <f t="shared" si="11"/>
         <v>1.1545024076442898E-3</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="S11" s="5">
+      <c r="Q11" s="12"/>
+      <c r="S11" s="4">
         <f t="shared" si="12"/>
         <v>9.9304299451976874</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <f t="shared" si="13"/>
         <v>7.1132701917650438</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <f t="shared" si="14"/>
         <v>0.70637831320585687</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="5"/>
         <v>9.315770090868758E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="6"/>
         <v>7.0710679830606322</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="7"/>
         <v>6.5872443627095914E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>0.73240819244540645</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="8"/>
         <v>4.9367526173557446</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <f t="shared" si="3"/>
         <v>3.61571806102765E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="9"/>
         <v>82.518518518518519</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <f t="shared" si="10"/>
         <v>1.1025007033383829E-2</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f t="shared" si="11"/>
         <v>1.5387331562432532E-3</v>
       </c>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>30</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="5"/>
         <v>9.3170515554866037E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="6"/>
         <v>7.0710686790178858</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="7"/>
         <v>6.5881511434796201E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>5.9</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1.9</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>1.2685113254635072</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>SQRT((0.1/(LN(F21)*F21-LN(G21)*F21))^2+(0.1/(-LN(F21)*G21-LN(G21)*G21))^2)*100</f>
         <v>10.789094533532296</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f t="shared" si="3"/>
         <v>0.13686088607282132</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="9"/>
         <v>92.518518518518519</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <f t="shared" si="10"/>
         <v>1.3028276683942365E-2</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <f t="shared" si="11"/>
         <v>4.6453649431528292E-4</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>40</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="5"/>
         <v>9.3188464947112942E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="6"/>
         <v>7.0710705546075028</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="7"/>
         <v>6.5894221051660375E-3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>5.4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>1.5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>1.7491998548092589</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f>SQRT((0.02/(LN(F22)*F22-LN(G22)*F22))^2+(0.02/(-LN(F22)*G22-LN(G22)*G22))^2)*100</f>
         <v>59.96732226226618</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <f t="shared" si="3"/>
         <v>1.0489483139445603</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="9"/>
         <v>102.51851851851852</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <f t="shared" si="10"/>
         <v>1.2517458983786664E-2</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <f t="shared" si="11"/>
         <v>4.6281205840418074E-5</v>
       </c>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>50</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="5"/>
         <v>9.3211557987708443E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="6"/>
         <v>7.0710745146510865</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="7"/>
         <v>6.5910587215780711E-3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>1.3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>2.0794415416798357</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>SQRT((0.01/(LN(F23)*F23-LN(G23)*F23))^2+(0.01/(-LN(F23)*G23-LN(G23)*G23))^2)*100</f>
         <v>4.398423781848523</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f t="shared" si="3"/>
         <v>9.1462651298883466E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="9"/>
         <v>112.51851851851852</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <f t="shared" si="10"/>
         <v>1.3242029018265626E-2</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <f t="shared" si="11"/>
         <v>6.7828882863854405E-4</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>60</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" si="5"/>
         <v>9.3239806143461862E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="6"/>
         <v>7.0710817276107578</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="7"/>
         <v>6.5930628950700244E-3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>1.2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="M16" s="5">
+      <c r="I16" s="7"/>
+      <c r="M16" s="4">
         <f t="shared" si="9"/>
         <v>122.51851851851852</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <f t="shared" si="10"/>
         <v>1.4402889945199567E-2</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <f t="shared" si="11"/>
         <v>1.8391497555724848E-3</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>70</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f t="shared" si="5"/>
         <v>9.3273223461555047E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="6"/>
         <v>7.0710936294590594</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="7"/>
         <v>6.5954369621811313E-3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="9"/>
         <v>132.51851851851853</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <f t="shared" si="10"/>
         <v>1.5376605597965306E-2</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <f t="shared" si="11"/>
         <v>2.8128654083382238E-3</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>80</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="5"/>
         <v>9.3311826588993743E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="6"/>
         <v>7.0711119284422059</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="7"/>
         <v>6.5981837005816427E-3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>4.8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0.9</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f t="shared" si="9"/>
         <v>142.51851851851853</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <f t="shared" si="10"/>
         <v>1.4164748072064739E-2</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <f t="shared" si="11"/>
         <v>1.6010078824376574E-3</v>
       </c>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>90</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f t="shared" si="5"/>
         <v>9.3355634795719969E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="6"/>
         <v>7.0711386107569858</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="7"/>
         <v>6.6013063373574384E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>4.7</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.6</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f t="shared" ref="I19:I32" si="15">2*3.14159265358979/(1-EXP(-2*I2))</f>
         <v>15.045472610942539</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f t="shared" ref="J19:J32" si="16">2*K2/(EXP(2*I2)-1)*100</f>
         <v>1.7486741479674301</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f t="shared" ref="K19:K32" si="17">I19*J19/100</f>
         <v>0.26309628998707252</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" si="9"/>
         <v>152.51851851851853</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <f t="shared" si="10"/>
         <v>1.0728908791246945E-2</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <f t="shared" si="11"/>
         <v>1.8348313983801365E-3</v>
       </c>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>100</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f t="shared" si="5"/>
         <v>9.3404670001448198E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="6"/>
         <v>7.0711759471655702</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="7"/>
         <v>6.6048085586717801E-3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>4.5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0.5</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f t="shared" si="15"/>
         <v>13.401124609772339</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <f t="shared" si="16"/>
         <v>1.6454061891548695</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <f t="shared" si="17"/>
         <v>0.22050293374555038</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <f t="shared" si="9"/>
         <v>162.51851851851853</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <f t="shared" si="10"/>
         <v>1.0691084168714001E-2</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f t="shared" si="11"/>
         <v>1.8726560209130806E-3</v>
       </c>
-      <c r="Q20" s="13"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>200</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f t="shared" si="5"/>
         <v>9.4189297278838374E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="6"/>
         <v>7.0728566363414567</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="7"/>
         <v>6.6618739633097033E-3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>3.2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>0.9</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f t="shared" si="15"/>
         <v>12.100497975955324</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f t="shared" si="16"/>
         <v>1.7087965474923941</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f t="shared" si="17"/>
         <v>0.20677289164251161</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="9"/>
         <v>262.51851851851853</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f>2*3.14/SQRT((1/($B$6*$B$2))-(M21^2/(4*($B$6^2))))*1000</f>
         <v>9.4964597331050893E-2</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <f>SQRT((((2*$N$29-M21^2*$B$2)*$N$30)/(4*$N$29^2-M21^2*$N$29*$B$2))^2+(2*$N$29*$C$2/(4*$N$29*$B$2-M21^2*$B$2^2))^2)*100</f>
         <v>7.3119209088579078</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <f t="shared" ref="R21:R23" si="18">P21*Q21/100</f>
         <v>6.9437362482618293E-3</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>300</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f t="shared" si="5"/>
         <v>9.5542130969067621E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="6"/>
         <v>7.0806500508511601</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="7"/>
         <v>6.7650039450455682E-3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f t="shared" si="15"/>
         <v>11.851111676575162</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f t="shared" si="16"/>
         <v>1.7685524639815906</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f t="shared" si="17"/>
         <v>0.20959312756528001</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="9"/>
         <v>362.51851851851853</v>
       </c>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>400</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f t="shared" si="5"/>
         <v>9.7537936838991104E-2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="6"/>
         <v>7.1039093360433956</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="7"/>
         <v>6.9290066012891996E-3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>1.6</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>0.2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" si="15"/>
         <v>10.941120976958704</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f t="shared" si="16"/>
         <v>2.2154341025034654</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f t="shared" si="17"/>
         <v>0.24239332531970345</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f t="shared" si="9"/>
         <v>462.51851851851853</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <f>2*3.14/SQRT((1/($B$6*$B$2))-(M23^2/(4*($B$6^2))))*1000</f>
         <v>9.9163643016439026E-2</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <f>SQRT((((2*$N$29-M23^2*$B$2)*$N$30)/(4*$N$29^2-M23^2*$N$29*$B$2))^2+(2*$N$29*$C$2/(4*$N$29*$B$2-M23^2*$B$2^2))^2)*100</f>
         <v>7.311592327919322</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <f t="shared" si="18"/>
         <v>7.2504413148752602E-3</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="15"/>
         <v>10.507368555081326</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f t="shared" si="16"/>
         <v>2.6417674722890774</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f t="shared" si="17"/>
         <v>0.27758024468166931</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="I25" s="9">
+      <c r="G25" s="22"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="8">
         <f t="shared" si="15"/>
         <v>10.236464388297499</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f t="shared" si="16"/>
         <v>1.4538727599244059</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f t="shared" si="17"/>
         <v>0.1488251673208198</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <f t="shared" ref="A26:A29" si="19">B2*10^6</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:C29" si="20">2*3.14/SQRT((1/($N$29*B2))-($N$27^2/(4*($N$29^2))))*1000</f>
         <v>0.10449663950198983</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" ref="D26:D29" si="21">ABS((B26-C26)/C26)*100</f>
         <v>11.958891273007747</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" ref="E26:E29" si="22">D26*B26/100</f>
         <v>1.1002179971167127E-2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <f t="shared" ref="F26:F29" si="23">2*3.14159265358979*SQRT($N$29*A26)</f>
         <v>0.10446015891875909</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="I26" s="9">
+      <c r="G26" s="22"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="8">
         <f t="shared" si="15"/>
         <v>9.9633840742032778</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <f t="shared" si="16"/>
         <v>1.623715914401892</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f t="shared" si="17"/>
         <v>0.16177705282582225</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f>-0.3376/0.0054</f>
         <v>-62.518518518518519</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <f t="shared" si="19"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0.112</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="20"/>
         <v>0.12803659799309491</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="21"/>
         <v>12.525011008149228</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="22"/>
         <v>1.4028012329127135E-2</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <f t="shared" si="23"/>
         <v>0.12793704390050059</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="I27" s="9">
+      <c r="G27" s="22"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="8">
         <f t="shared" si="15"/>
         <v>9.3443141780398431</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f t="shared" si="16"/>
         <v>0.83672605499761665</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f t="shared" si="17"/>
         <v>7.8186311388495744E-2</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="15">
         <f>-N26</f>
         <v>62.518518518518519</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <f t="shared" si="19"/>
         <v>4.7000000000000007E-2</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="20"/>
         <v>0.15288443161026941</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="21"/>
         <v>13.660273574164611</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="22"/>
         <v>1.8031561117897287E-2</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <f t="shared" si="23"/>
         <v>0.15268215137435368</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="I28" s="9">
+      <c r="G28" s="22"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="8">
         <f t="shared" si="15"/>
         <v>8.4172384183433131</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <f t="shared" si="16"/>
         <v>1.5016455585339954</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f t="shared" si="17"/>
         <v>0.12639708686026949</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <f t="shared" si="19"/>
         <v>0.47000000000000003</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>0.44</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="20"/>
         <v>0.49164812033727628</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="21"/>
         <v>10.505098707963141</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="22"/>
         <v>4.6222434315037822E-2</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <f t="shared" si="23"/>
         <v>0.48282335639756546</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="I29" s="9">
+      <c r="G29" s="22"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="8">
         <f t="shared" si="15"/>
         <v>8.1718717855273191</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <f t="shared" si="16"/>
         <v>2.1737247836944786</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <f t="shared" si="17"/>
         <v>0.17763400229374382</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <f>AVERAGE(N10:N20)</f>
         <v>1.2563740189627082E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G30" s="21"/>
-      <c r="I30" s="9">
+      <c r="G30" s="22"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="8">
         <f t="shared" si="15"/>
         <v>6.822886272059268</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <f t="shared" si="16"/>
         <v>2.3511626239445444</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f t="shared" si="17"/>
         <v>0.16041715190290082</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <f>AVERAGE(O10:O20)</f>
         <v>1.3446997035094896E-3</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-      <c r="I31" s="9">
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="8">
         <f t="shared" si="15"/>
         <v>6.4791521003859609</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f t="shared" si="16"/>
         <v>6.5431473774319588</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <f t="shared" si="17"/>
         <v>0.4239404707362317</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F32" s="2"/>
-      <c r="I32" s="4">
+      <c r="F32" s="1"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="3">
         <f t="shared" si="15"/>
         <v>6.3829184072935412</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <f t="shared" si="16"/>
         <v>0.29035762317105873</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="17"/>
         <v>1.8533290176365524E-2</v>
       </c>
@@ -3189,7 +3206,7 @@
       <c r="M33" t="s">
         <v>43</v>
       </c>
-      <c r="T33" s="19" t="s">
+      <c r="T33" s="18" t="s">
         <v>44</v>
       </c>
     </row>
